--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arash/PycharmProjects/sog-gail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A36C4-3002-A643-830C-6F5AE93BADBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68618A7-8F1B-B64D-A098-80EC75A8C44F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{A4D2EF00-5742-8C47-A34F-CADB5B28294A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>hcv.s.shared</t>
+  </si>
+  <si>
+    <t>Ellipses-v0</t>
+  </si>
+  <si>
+    <t>e.s.shared</t>
   </si>
 </sst>
 </file>
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35B56B6-6592-9D48-ABAC-259C3F593407}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1934,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="R30" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" s="22" t="b">
         <v>1</v>
@@ -2153,7 +2159,7 @@
         <v>42</v>
       </c>
       <c r="R35" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T35" s="12" t="b">
         <v>1</v>
@@ -2198,7 +2204,7 @@
         <v>42</v>
       </c>
       <c r="R36" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="12" t="b">
         <v>1</v>
@@ -2291,6 +2297,48 @@
         <v>1</v>
       </c>
       <c r="W38" s="21"/>
+    </row>
+    <row r="39" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="12">
+        <v>3</v>
+      </c>
+      <c r="O39" s="12">
+        <v>10</v>
+      </c>
+      <c r="P39" s="12">
+        <v>5</v>
+      </c>
+      <c r="R39" s="12">
+        <v>2</v>
+      </c>
+      <c r="S39" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
